--- a/PerformanceGraphs.xlsx
+++ b/PerformanceGraphs.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantunes/Documents/PhD/Courses/PDC_SS/PDC_Project_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C4731-FE3F-3440-8537-047CF85F27E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A05ACF-716D-DC43-94B0-1CF200742D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{717D74CF-F2A7-2641-96DE-9C1B40A1565E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$8:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$8:$B$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$8:$A$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$8:$B$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$18:$C$24</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ONNXRuntime</t>
   </si>
@@ -71,6 +63,9 @@
   </si>
   <si>
     <t>MPI number of processes</t>
+  </si>
+  <si>
+    <t>Speed Up</t>
   </si>
 </sst>
 </file>
@@ -1798,10 +1793,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$17:$M$17</c:f>
+              <c:f>Sheet1!$G$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1819,19 +1814,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$18:$M$18</c:f>
+              <c:f>Sheet1!$G$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.389876E-3</c:v>
                 </c:pt>
@@ -1848,9 +1840,6 @@
                   <c:v>1.5156600000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6451999999999992E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>7.6451999999999992E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -6234,10 +6223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F553F-D1E6-4A4D-AACB-1EF8486EF69E}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6248,11 +6237,11 @@
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6260,7 +6249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6268,23 +6257,30 @@
         <v>8.8999999999999995E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
         <v>1.3699999999999999E-3</v>
       </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
         <v>4.267E-3</v>
       </c>
+      <c r="Q10">
+        <f>B8/F25</f>
+        <v>2.5725487656968831</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -6320,9 +6316,6 @@
       <c r="L17">
         <v>64</v>
       </c>
-      <c r="M17">
-        <v>128</v>
-      </c>
       <c r="N17" t="s">
         <v>8</v>
       </c>
@@ -6339,7 +6332,7 @@
         <v>4.4763429999999998E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:M18" si="0">F28/10000</f>
+        <f t="shared" ref="F18:L18" si="0">F28/10000</f>
         <v>4.8950906000000006E-3</v>
       </c>
       <c r="G18">
@@ -6363,10 +6356,6 @@
         <v>1.5156600000000001E-4</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
-        <v>7.6451999999999992E-5</v>
-      </c>
-      <c r="M18">
         <f t="shared" si="0"/>
         <v>7.6451999999999992E-5</v>
       </c>
@@ -6379,7 +6368,7 @@
         <v>1.139E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:M24" si="1">E29/10000</f>
+        <f t="shared" ref="E19:L24" si="1">E29/10000</f>
         <v>2.7842791999999998E-3</v>
       </c>
       <c r="F19">
@@ -6409,10 +6398,6 @@
       <c r="L19">
         <f t="shared" si="1"/>
         <v>4.6886499999999999E-5</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
@@ -6454,10 +6439,6 @@
         <f t="shared" si="1"/>
         <v>2.2198899999999998E-5</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -6498,10 +6479,6 @@
         <f t="shared" si="1"/>
         <v>1.30443E-5</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22">
@@ -6542,10 +6519,6 @@
         <f t="shared" si="1"/>
         <v>8.8063000000000007E-6</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23">
@@ -6586,10 +6559,6 @@
         <f t="shared" si="1"/>
         <v>6.5280000000000009E-6</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24">
@@ -6630,10 +6599,6 @@
         <f t="shared" si="1"/>
         <v>6.6003999999999995E-6</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25">
@@ -6644,7 +6609,7 @@
         <v>1.1133290000000001E-3</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:M25" si="2">F35/10000</f>
+        <f t="shared" ref="F25:L25" si="2">F35/10000</f>
         <v>3.459604E-4</v>
       </c>
       <c r="G25">
@@ -6670,10 +6635,6 @@
       <c r="L25">
         <f t="shared" si="2"/>
         <v>8.6187999999999995E-6</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
@@ -6916,6 +6877,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>